--- a/FilteredInput/yield_summary.xlsx
+++ b/FilteredInput/yield_summary.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,10 +472,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>strip</t>
+          <t>mean_temp_year</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>total_rainfall_year</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>total_Metopolophium dirhodum</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>total_Rhopalosiphum padi</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>total_Sitobion avenae</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>CO2e_total_kg</t>
         </is>
@@ -504,9 +524,21 @@
         <v>3.275</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10.4713470515</v>
       </c>
       <c r="I2" t="n">
+        <v>709.0035599999999</v>
+      </c>
+      <c r="J2" t="n">
+        <v>579</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1256</v>
+      </c>
+      <c r="L2" t="n">
+        <v>324</v>
+      </c>
+      <c r="M2" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -533,9 +565,21 @@
         <v>6.06</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9.14304609925</v>
       </c>
       <c r="I3" t="n">
+        <v>776.3224200000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>415</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2683</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1115</v>
+      </c>
+      <c r="M3" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -562,9 +606,21 @@
         <v>4.455</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10.002850274</v>
       </c>
       <c r="I4" t="n">
+        <v>714.42002</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4775</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4415</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4911</v>
+      </c>
+      <c r="M4" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -591,9 +647,21 @@
         <v>2.54</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9.48823883725</v>
       </c>
       <c r="I5" t="n">
+        <v>935.7211</v>
+      </c>
+      <c r="J5" t="n">
+        <v>381</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1349</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2123</v>
+      </c>
+      <c r="M5" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -620,9 +688,21 @@
         <v>4.19</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9.5933518805</v>
       </c>
       <c r="I6" t="n">
+        <v>934.50516</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2583</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4376</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6747</v>
+      </c>
+      <c r="M6" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -649,9 +729,21 @@
         <v>2.545</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10.57316965825</v>
       </c>
       <c r="I7" t="n">
+        <v>706.9033000000002</v>
+      </c>
+      <c r="J7" t="n">
+        <v>229</v>
+      </c>
+      <c r="K7" t="n">
+        <v>820</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3983</v>
+      </c>
+      <c r="M7" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -678,9 +770,21 @@
         <v>3.8275</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9.243593227250001</v>
       </c>
       <c r="I8" t="n">
+        <v>652.7387</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1101</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2169</v>
+      </c>
+      <c r="L8" t="n">
+        <v>12803</v>
+      </c>
+      <c r="M8" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -707,9 +811,21 @@
         <v>2.76</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9.92623058975</v>
       </c>
       <c r="I9" t="n">
+        <v>633.1731199999999</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5640</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4720</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2247</v>
+      </c>
+      <c r="M9" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -736,9 +852,21 @@
         <v>4.2175</v>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>10.25889257125</v>
       </c>
       <c r="I10" t="n">
+        <v>726.35834</v>
+      </c>
+      <c r="J10" t="n">
+        <v>41</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1374</v>
+      </c>
+      <c r="L10" t="n">
+        <v>385</v>
+      </c>
+      <c r="M10" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -765,9 +893,21 @@
         <v>2.515</v>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>10.29818976425</v>
       </c>
       <c r="I11" t="n">
+        <v>951.63886</v>
+      </c>
+      <c r="J11" t="n">
+        <v>265</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1757</v>
+      </c>
+      <c r="L11" t="n">
+        <v>920</v>
+      </c>
+      <c r="M11" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -794,9 +934,21 @@
         <v>2.735</v>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>10.263630256</v>
       </c>
       <c r="I12" t="n">
+        <v>794.0088199999999</v>
+      </c>
+      <c r="J12" t="n">
+        <v>75</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1351</v>
+      </c>
+      <c r="L12" t="n">
+        <v>877</v>
+      </c>
+      <c r="M12" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -823,9 +975,21 @@
         <v>2.79</v>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>9.70129622</v>
       </c>
       <c r="I13" t="n">
+        <v>717.3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2448</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2040</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2382</v>
+      </c>
+      <c r="M13" t="n">
         <v>1664.532</v>
       </c>
     </row>
@@ -852,9 +1016,21 @@
         <v>2.076666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>9.629243245750001</v>
       </c>
       <c r="I14" t="n">
+        <v>623.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2519</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4968</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5991</v>
+      </c>
+      <c r="M14" t="n">
         <v>1664.532</v>
       </c>
     </row>
@@ -881,9 +1057,21 @@
         <v>4.826666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>10.525347886</v>
       </c>
       <c r="I15" t="n">
+        <v>870.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>86</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1833</v>
+      </c>
+      <c r="L15" t="n">
+        <v>434</v>
+      </c>
+      <c r="M15" t="n">
         <v>1664.532</v>
       </c>
     </row>
@@ -910,9 +1098,21 @@
         <v>3.43</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>9.14851651625</v>
       </c>
       <c r="I16" t="n">
+        <v>778.3000000000001</v>
+      </c>
+      <c r="J16" t="n">
+        <v>151</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1081</v>
+      </c>
+      <c r="L16" t="n">
+        <v>437</v>
+      </c>
+      <c r="M16" t="n">
         <v>1664.532</v>
       </c>
     </row>
@@ -939,9 +1139,21 @@
         <v>3.81</v>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>10.87966458975</v>
       </c>
       <c r="I17" t="n">
+        <v>982.9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>150</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4315</v>
+      </c>
+      <c r="L17" t="n">
+        <v>384</v>
+      </c>
+      <c r="M17" t="n">
         <v>1664.532</v>
       </c>
     </row>
@@ -968,9 +1180,21 @@
         <v>3.06</v>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>10.7708836005</v>
       </c>
       <c r="I18" t="n">
+        <v>742.8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>110</v>
+      </c>
+      <c r="K18" t="n">
+        <v>927</v>
+      </c>
+      <c r="L18" t="n">
+        <v>111</v>
+      </c>
+      <c r="M18" t="n">
         <v>1664.532</v>
       </c>
     </row>
@@ -997,9 +1221,21 @@
         <v>2.78</v>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>10.6930498805</v>
       </c>
       <c r="I19" t="n">
+        <v>622.2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>91</v>
+      </c>
+      <c r="K19" t="n">
+        <v>660</v>
+      </c>
+      <c r="L19" t="n">
+        <v>106</v>
+      </c>
+      <c r="M19" t="n">
         <v>1664.532</v>
       </c>
     </row>
@@ -1026,9 +1262,21 @@
         <v>2.1725</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>10.5555822335</v>
       </c>
       <c r="I20" t="n">
+        <v>704.1999999999999</v>
+      </c>
+      <c r="J20" t="n">
+        <v>191</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3848</v>
+      </c>
+      <c r="L20" t="n">
+        <v>264</v>
+      </c>
+      <c r="M20" t="n">
         <v>1664.532</v>
       </c>
     </row>
@@ -1055,9 +1303,21 @@
         <v>1.655</v>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>10.23620925</v>
       </c>
       <c r="I21" t="n">
+        <v>565.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>200</v>
+      </c>
+      <c r="K21" t="n">
+        <v>843</v>
+      </c>
+      <c r="L21" t="n">
+        <v>145</v>
+      </c>
+      <c r="M21" t="n">
         <v>1664.532</v>
       </c>
     </row>
@@ -1072,7 +1332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1118,10 +1378,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>strip</t>
+          <t>mean_temp_year</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>total_rainfall_year</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>total_Metopolophium dirhodum</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>total_Rhopalosiphum padi</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>total_Sitobion avenae</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>CO2e_total_kg</t>
         </is>
@@ -1155,6 +1435,18 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1184,6 +1476,18 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1213,6 +1517,18 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1242,6 +1558,18 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1269,6 +1597,18 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>4.641245714809236e-14</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>9.282491429618472e-14</v>
       </c>
     </row>
@@ -1300,6 +1640,18 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1329,6 +1681,18 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1358,6 +1722,18 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1387,6 +1763,18 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1416,6 +1804,18 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1445,6 +1845,18 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1474,6 +1886,18 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1503,6 +1927,18 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1532,6 +1968,18 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1561,6 +2009,18 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1590,6 +2050,18 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1617,6 +2089,18 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
+        <v>4.641245714809236e-14</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>9.282491429618472e-14</v>
       </c>
     </row>
@@ -1648,6 +2132,18 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1677,6 +2173,18 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1704,6 +2212,18 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/FilteredInput/yield_summary.xlsx
+++ b/FilteredInput/yield_summary.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,30 +472,35 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>strip</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>mean_temp_year</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>total_rainfall_year</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>total_Metopolophium dirhodum</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>total_Rhopalosiphum padi</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>total_Sitobion avenae</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>CO2e_total_kg</t>
         </is>
@@ -524,21 +529,24 @@
         <v>3.275</v>
       </c>
       <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
         <v>10.4713470515</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>709.0035599999999</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>579</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>1256</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>324</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -565,21 +573,24 @@
         <v>6.06</v>
       </c>
       <c r="H3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" t="n">
         <v>9.14304609925</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>776.3224200000001</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>415</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>2683</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>1115</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -606,21 +617,24 @@
         <v>4.455</v>
       </c>
       <c r="H4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" t="n">
         <v>10.002850274</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>714.42002</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>4775</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>4415</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>4911</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -647,21 +661,24 @@
         <v>2.54</v>
       </c>
       <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
         <v>9.48823883725</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>935.7211</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>381</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>1349</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>2123</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -688,21 +705,24 @@
         <v>4.19</v>
       </c>
       <c r="H6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" t="n">
         <v>9.5933518805</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>934.50516</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>2583</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>4376</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>6747</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -729,21 +749,24 @@
         <v>2.545</v>
       </c>
       <c r="H7" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" t="n">
         <v>10.57316965825</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>706.9033000000002</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>229</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>820</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>3983</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -770,21 +793,24 @@
         <v>3.8275</v>
       </c>
       <c r="H8" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" t="n">
         <v>9.243593227250001</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>652.7387</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>1101</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>2169</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>12803</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -811,21 +837,24 @@
         <v>2.76</v>
       </c>
       <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" t="n">
         <v>9.92623058975</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>633.1731199999999</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>5640</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>4720</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>2247</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -852,21 +881,24 @@
         <v>4.2175</v>
       </c>
       <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="n">
         <v>10.25889257125</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>726.35834</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>41</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>1374</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>385</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -893,21 +925,24 @@
         <v>2.515</v>
       </c>
       <c r="H11" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" t="n">
         <v>10.29818976425</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>951.63886</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>265</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>1757</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>920</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -934,21 +969,24 @@
         <v>2.735</v>
       </c>
       <c r="H12" t="n">
+        <v>8</v>
+      </c>
+      <c r="I12" t="n">
         <v>10.263630256</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>794.0088199999999</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>75</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>1351</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>877</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>1699.532</v>
       </c>
     </row>
@@ -975,21 +1013,24 @@
         <v>2.79</v>
       </c>
       <c r="H13" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" t="n">
         <v>9.70129622</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>717.3</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>2448</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>2040</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>2382</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>1664.532</v>
       </c>
     </row>
@@ -1016,21 +1057,24 @@
         <v>2.076666666666667</v>
       </c>
       <c r="H14" t="n">
+        <v>8</v>
+      </c>
+      <c r="I14" t="n">
         <v>9.629243245750001</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>623.7</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>2519</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>4968</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>5991</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>1664.532</v>
       </c>
     </row>
@@ -1057,21 +1101,24 @@
         <v>4.826666666666667</v>
       </c>
       <c r="H15" t="n">
+        <v>8</v>
+      </c>
+      <c r="I15" t="n">
         <v>10.525347886</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>870.8</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>86</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>1833</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>434</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>1664.532</v>
       </c>
     </row>
@@ -1098,21 +1145,24 @@
         <v>3.43</v>
       </c>
       <c r="H16" t="n">
+        <v>8</v>
+      </c>
+      <c r="I16" t="n">
         <v>9.14851651625</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>778.3000000000001</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>151</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>1081</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>437</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>1664.532</v>
       </c>
     </row>
@@ -1139,21 +1189,24 @@
         <v>3.81</v>
       </c>
       <c r="H17" t="n">
+        <v>8</v>
+      </c>
+      <c r="I17" t="n">
         <v>10.87966458975</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>982.9</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>150</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>4315</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>384</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>1664.532</v>
       </c>
     </row>
@@ -1180,21 +1233,24 @@
         <v>3.06</v>
       </c>
       <c r="H18" t="n">
+        <v>8</v>
+      </c>
+      <c r="I18" t="n">
         <v>10.7708836005</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>742.8</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>110</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>927</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>111</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>1664.532</v>
       </c>
     </row>
@@ -1221,21 +1277,24 @@
         <v>2.78</v>
       </c>
       <c r="H19" t="n">
+        <v>8</v>
+      </c>
+      <c r="I19" t="n">
         <v>10.6930498805</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>622.2</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>91</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>660</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>106</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>1664.532</v>
       </c>
     </row>
@@ -1262,21 +1321,24 @@
         <v>2.1725</v>
       </c>
       <c r="H20" t="n">
+        <v>8</v>
+      </c>
+      <c r="I20" t="n">
         <v>10.5555822335</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>704.1999999999999</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>191</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>3848</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>264</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>1664.532</v>
       </c>
     </row>
@@ -1303,21 +1365,24 @@
         <v>1.655</v>
       </c>
       <c r="H21" t="n">
+        <v>8</v>
+      </c>
+      <c r="I21" t="n">
         <v>10.23620925</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>565.2</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>200</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>843</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>145</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>1664.532</v>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1378,30 +1443,35 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>strip</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>mean_temp_year</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>total_rainfall_year</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>total_Metopolophium dirhodum</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>total_Rhopalosiphum padi</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>total_Sitobion avenae</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>CO2e_total_kg</t>
         </is>
@@ -1447,6 +1517,9 @@
       <c r="M2" t="n">
         <v>0</v>
       </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1488,6 +1561,9 @@
       <c r="M3" t="n">
         <v>0</v>
       </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1529,6 +1605,9 @@
       <c r="M4" t="n">
         <v>0</v>
       </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1570,6 +1649,9 @@
       <c r="M5" t="n">
         <v>0</v>
       </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1597,11 +1679,11 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>4.641245714809236e-14</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -1609,6 +1691,9 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>9.282491429618472e-14</v>
       </c>
     </row>
@@ -1652,6 +1737,9 @@
       <c r="M7" t="n">
         <v>0</v>
       </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1693,6 +1781,9 @@
       <c r="M8" t="n">
         <v>0</v>
       </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1734,6 +1825,9 @@
       <c r="M9" t="n">
         <v>0</v>
       </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1775,6 +1869,9 @@
       <c r="M10" t="n">
         <v>0</v>
       </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1816,6 +1913,9 @@
       <c r="M11" t="n">
         <v>0</v>
       </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1857,6 +1957,9 @@
       <c r="M12" t="n">
         <v>0</v>
       </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1898,6 +2001,9 @@
       <c r="M13" t="n">
         <v>0</v>
       </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1939,6 +2045,9 @@
       <c r="M14" t="n">
         <v>0</v>
       </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1980,6 +2089,9 @@
       <c r="M15" t="n">
         <v>0</v>
       </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2021,6 +2133,9 @@
       <c r="M16" t="n">
         <v>0</v>
       </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2062,6 +2177,9 @@
       <c r="M17" t="n">
         <v>0</v>
       </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2089,11 +2207,11 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>4.641245714809236e-14</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2101,6 +2219,9 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>9.282491429618472e-14</v>
       </c>
     </row>
@@ -2144,6 +2265,9 @@
       <c r="M19" t="n">
         <v>0</v>
       </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2185,6 +2309,9 @@
       <c r="M20" t="n">
         <v>0</v>
       </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2224,6 +2351,9 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
